--- a/quiz_server/data/results.xlsx
+++ b/quiz_server/data/results.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL3"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,380 +436,178 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>quiz_name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>start_time</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>end_time</t>
+          <t>total_score</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>total_time_ms</t>
+          <t>total_questions</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>score</t>
+          <t>question_1_correct</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>number_of_questions</t>
+          <t>question_1_hint_used</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>question_0_hint_used</t>
+          <t>question_1_attempts</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>question_0_tries_taken</t>
+          <t>question_1_attempted_answers</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>question_0_correct</t>
+          <t>question_2_correct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>question_0_selections</t>
+          <t>question_2_hint_used</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>question_1_hint_used</t>
+          <t>question_2_attempts</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>question_1_tries_taken</t>
+          <t>question_2_attempted_answers</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>question_1_correct</t>
+          <t>question_3_correct</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>question_1_selections</t>
+          <t>question_3_hint_used</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>question_2_hint_used</t>
+          <t>question_3_attempts</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>question_2_tries_taken</t>
+          <t>question_3_attempted_answers</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>question_2_correct</t>
+          <t>question_4_correct</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>question_2_selections</t>
+          <t>question_4_hint_used</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>question_3_hint_used</t>
+          <t>question_4_attempts</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>question_3_tries_taken</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>question_3_correct</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>question_3_selections</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>question_4_hint_used</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>question_4_tries_taken</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>question_4_correct</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>question_4_selections</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>question_5_hint_used</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>question_5_tries_taken</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>question_5_correct</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>question_5_selections</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>question_6_hint_used</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>question_6_tries_taken</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>question_6_correct</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>question_6_selections</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>question_7_hint_used</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>question_7_tries_taken</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>question_7_correct</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>question_7_selections</t>
+          <t>question_4_attempted_answers</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2025-08-06T05:13:28.884Z</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>Demo</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>45873.00204261574</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>45873.00211075231</v>
+      <c r="C2" t="n">
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>5887</v>
-      </c>
-      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>2</v>
       </c>
-      <c r="F2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>4, 2</t>
+        </is>
       </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>0,</t>
-        </is>
-      </c>
-      <c r="K2" t="b">
+      <c r="J2" t="b">
         <v>0</v>
       </c>
-      <c r="L2" t="n">
-        <v>2</v>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="M2" t="b">
         <v>0</v>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>2,1,</t>
-        </is>
-      </c>
-      <c r="O2" t="b">
+      <c r="N2" t="b">
         <v>0</v>
       </c>
-      <c r="P2" t="n">
+      <c r="O2" t="n">
         <v>1</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="Q2" t="b">
         <v>1</v>
       </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0,</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Autonomous Vehicle</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>45873.12718336806</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>45873.12720300926</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1697</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="R2" t="b">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
-        <v>8</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="b">
-        <v>0</v>
-      </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="b">
-        <v>0</v>
-      </c>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="b">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="inlineStr"/>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/quiz_server/data/results.xlsx
+++ b/quiz_server/data/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,23 +534,63 @@
           <t>question_4_attempted_answers</t>
         </is>
       </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>question_5_correct</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>question_5_hint_used</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>question_5_attempts</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>question_5_attempted_answers</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>question_6_correct</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>question_6_hint_used</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>question_6_attempts</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>question_6_attempted_answers</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-08-06T05:13:28.884Z</t>
+          <t>2025-08-06T06:24:10.298Z</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Demo</t>
+          <t>Andy Robot</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -559,39 +599,39 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>4, 2</t>
+          <t>2, 2, 2</t>
         </is>
       </c>
       <c r="I2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2, 4, 3</t>
+        </is>
+      </c>
+      <c r="M2" t="b">
         <v>1</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M2" t="b">
-        <v>0</v>
       </c>
       <c r="N2" t="b">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3, 4</t>
         </is>
       </c>
       <c r="Q2" t="b">
@@ -601,11 +641,39 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
+        <v>2</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>4, 3</t>
+        </is>
+      </c>
+      <c r="U2" t="b">
         <v>1</v>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="V2" t="b">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>4, 4</t>
+        </is>
+      </c>
+      <c r="Y2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
